--- a/מגנטיות/מדידות חלק א ניסוי שני.xlsx
+++ b/מגנטיות/מדידות חלק א ניסוי שני.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\מגנטיות\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622D2DEB-A753-46CD-A894-1DA9A91F9291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F7D7B-2975-48B5-AA75-1922CE4995BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43959,7 +43959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -52163,7 +52163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20:I25"/>
     </sheetView>
   </sheetViews>
